--- a/Book9 (1).xlsx
+++ b/Book9 (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\26008\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aashshiv\SampleGit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD50497-B37D-4345-8801-026F0FE8B252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648E474E-E3E9-4651-9777-6C6FC9926F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>mpt_bus_if.c</t>
   </si>
@@ -135,6 +135,9 @@
   </si>
   <si>
     <t>Clear busoff error from EDM</t>
+  </si>
+  <si>
+    <t>updating</t>
   </si>
 </sst>
 </file>
@@ -711,18 +714,18 @@
   <dimension ref="D2:J57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:G14"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="20.28515625" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
-    <col min="7" max="7" width="57.5703125" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="57.5546875" customWidth="1"/>
+    <col min="8" max="8" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D2" s="10" t="s">
         <v>0</v>
       </c>
@@ -730,7 +733,7 @@
       <c r="F2" s="11"/>
       <c r="G2" s="12"/>
     </row>
-    <row r="3" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D3" s="13"/>
       <c r="E3" s="14">
         <v>385</v>
@@ -741,8 +744,11 @@
       <c r="G3" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D4" s="13"/>
       <c r="E4" s="14">
         <v>412</v>
@@ -754,7 +760,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D5" s="13"/>
       <c r="E5" s="14">
         <v>462</v>
@@ -766,7 +772,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D6" s="1"/>
       <c r="E6" s="2">
         <v>498</v>
@@ -778,7 +784,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D7" s="1"/>
       <c r="E7" s="2">
         <v>545</v>
@@ -790,7 +796,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D8" s="1"/>
       <c r="E8" s="2">
         <v>1535</v>
@@ -802,7 +808,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D9" s="1"/>
       <c r="E9" s="2">
         <v>1610</v>
@@ -814,7 +820,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D10" s="1"/>
       <c r="E10" s="2">
         <v>1849</v>
@@ -826,7 +832,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D11" s="1"/>
       <c r="E11" s="2">
         <v>1880</v>
@@ -838,7 +844,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D12" s="22" t="s">
         <v>10</v>
       </c>
@@ -846,13 +852,13 @@
       <c r="F12" s="24"/>
       <c r="G12" s="25"/>
     </row>
-    <row r="13" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D13" s="22"/>
       <c r="E13" s="23"/>
       <c r="F13" s="24"/>
       <c r="G13" s="25"/>
     </row>
-    <row r="14" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D14" s="22"/>
       <c r="E14" s="23">
         <v>377</v>
@@ -864,7 +870,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D15" s="15" t="s">
         <v>12</v>
       </c>
@@ -872,7 +878,7 @@
       <c r="F15" s="17"/>
       <c r="G15" s="18"/>
     </row>
-    <row r="16" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D16" s="15"/>
       <c r="E16" s="16">
         <v>47</v>
@@ -884,7 +890,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D17" s="15"/>
       <c r="E17" s="16">
         <v>67</v>
@@ -896,7 +902,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D18" s="15"/>
       <c r="E18" s="16">
         <v>76</v>
@@ -908,7 +914,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D19" s="1" t="s">
         <v>16</v>
       </c>
@@ -916,7 +922,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D20" s="1">
         <v>42</v>
       </c>
@@ -930,7 +936,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D21" s="1">
         <v>43</v>
       </c>
@@ -944,7 +950,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D22" s="1">
         <v>68</v>
       </c>
@@ -958,7 +964,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D23" s="1">
         <v>44</v>
       </c>
@@ -972,7 +978,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D24" s="1">
         <v>45</v>
       </c>
@@ -986,7 +992,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D25" s="1">
         <v>46</v>
       </c>
@@ -1000,7 +1006,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D26" s="1">
         <v>47</v>
       </c>
@@ -1014,7 +1020,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D27" s="1">
         <v>48</v>
       </c>
@@ -1028,7 +1034,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D28" s="1">
         <v>49</v>
       </c>
@@ -1042,7 +1048,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1050,7 +1056,7 @@
       <c r="F29" s="3"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D30" s="1"/>
       <c r="E30" s="2">
         <v>183</v>
@@ -1062,7 +1068,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1070,7 +1076,7 @@
       <c r="F31" s="3"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D32" s="1"/>
       <c r="E32" s="2">
         <v>2336</v>
@@ -1082,7 +1088,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D33" s="1"/>
       <c r="E33" s="2">
         <v>6027</v>
@@ -1094,7 +1100,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D34" s="1"/>
       <c r="E34" s="2">
         <v>6044</v>
@@ -1106,7 +1112,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D35" s="1"/>
       <c r="E35" s="2">
         <v>6128</v>
@@ -1118,7 +1124,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D36" s="1"/>
       <c r="E36" s="2">
         <v>6154</v>
@@ -1130,7 +1136,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D37" s="6"/>
       <c r="E37" s="7">
         <v>6170</v>
@@ -1142,7 +1148,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D40" s="19" t="s">
         <v>16</v>
       </c>
@@ -1162,7 +1168,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D41" s="20"/>
       <c r="E41" s="19">
         <v>1602</v>
@@ -1178,7 +1184,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D42" s="20"/>
       <c r="E42" s="19">
         <v>1375</v>
@@ -1194,7 +1200,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="43" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D43" s="20"/>
       <c r="E43" s="19">
         <v>240</v>
@@ -1210,7 +1216,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D44" s="19" t="s">
         <v>0</v>
       </c>
@@ -1230,7 +1236,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="45" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D45" s="20"/>
       <c r="E45" s="19">
         <v>762</v>
@@ -1246,7 +1252,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D46" s="20"/>
       <c r="E46" s="19">
         <v>858</v>
@@ -1262,7 +1268,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="47" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D47" s="20"/>
       <c r="E47" s="19">
         <v>940</v>
@@ -1278,7 +1284,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="48" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D48" s="20"/>
       <c r="E48" s="19">
         <v>1068</v>
@@ -1294,7 +1300,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="49" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D49" s="20"/>
       <c r="E49" s="19">
         <v>1099</v>
@@ -1310,7 +1316,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D50" s="20"/>
       <c r="E50" s="19">
         <v>1162</v>
@@ -1326,7 +1332,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="51" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D51" s="20"/>
       <c r="E51" s="19">
         <v>1225</v>
@@ -1342,7 +1348,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="52" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D52" s="20"/>
       <c r="E52" s="19">
         <v>1326</v>
@@ -1358,7 +1364,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="53" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D53" s="20"/>
       <c r="E53" s="19">
         <v>1416</v>
@@ -1374,7 +1380,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="54" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D54" s="20"/>
       <c r="E54" s="19">
         <v>1692</v>
@@ -1390,7 +1396,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="55" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D55" s="20"/>
       <c r="E55" s="19">
         <v>1740</v>
@@ -1406,7 +1412,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="56" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D56" s="20"/>
       <c r="E56" s="19">
         <v>1781</v>
@@ -1422,7 +1428,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="57" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D57" s="20"/>
       <c r="E57" s="19">
         <v>1817</v>
